--- a/excel/M2-S3/M2-S3-MEFIM.xlsx
+++ b/excel/M2-S3/M2-S3-MEFIM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M2-S3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\backendespi\excel\M2-S3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FC434E-90B5-4671-8B11-8C777E5B9AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C68C8FD-F834-49D3-B16D-2D7FF7B8E04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61680" yWindow="2235" windowWidth="21600" windowHeight="11235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>PropTech et Innovation</t>
   </si>
   <si>
-    <t>Economie Immobilière II</t>
-  </si>
-  <si>
     <t>UE 3 – Aménagement &amp; Urbanisme</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Droit des Suretés et de la Transmission</t>
   </si>
   <si>
-    <t>Evaluation d'Actifs Tertiaires et Industriels</t>
-  </si>
-  <si>
     <t>Gestion de Patrimoine</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>CodeApprenant</t>
+  </si>
+  <si>
+    <t>Économie Immobilière II</t>
+  </si>
+  <si>
+    <t>Évaluation d'Actifs Tertiaires et Industriels</t>
   </si>
 </sst>
 </file>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,22 +651,22 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>1</v>
@@ -684,16 +684,16 @@
         <v>5</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -788,7 +788,7 @@
         <v>16</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
